--- a/interface/Aircrafts.xlsx
+++ b/interface/Aircrafts.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>983</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>257</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
